--- a/biology/Botanique/Gentiane_pourpre/Gentiane_pourpre.xlsx
+++ b/biology/Botanique/Gentiane_pourpre/Gentiane_pourpre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana purpurea
 La Gentiane pourpre (Gentiana purpurea) est une plante herbacée vivace de la famille des Gentianacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gentiane pourpre, bien que plus petite, ressemble à sa cousine la Gentiane jaune. Comme elle, son rhizome contient des substances amères et toniques. Cependant, elle est assez rare en France. Elle pousse essentiellement dans les Alpes suisses, où elle est protégée et où on la trouve fleurie en été entre 1 200 m et 2 700 m. Elle se rencontre également en France, en Haute-Savoie (au-dessus de Saint-Gervais-les-Bains, Megève, etc.) et en Savoie (Tarentaise, etc.).
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : glomérules
@@ -586,9 +602,11 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gentiane pourpre dans sa forme à fleurs cuivrées peut être confondue avec la gentiane ponctuée (Gentiana punctata)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gentiane pourpre dans sa forme à fleurs cuivrées peut être confondue avec la gentiane ponctuée (Gentiana punctata).
 </t>
         </is>
       </c>
